--- a/Documentos/TrabajoISO2.xlsx
+++ b/Documentos/TrabajoISO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/carlos_salgado3_alu_uclm_es/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16268BBC-5FC7-46C8-AEE6-3BE8B5B9AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9084CB-1709-46CF-9740-9F33AA8A35CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="327">
   <si>
     <t>FASE</t>
   </si>
@@ -1093,7 +1093,7 @@
     <t>0.1.0</t>
   </si>
   <si>
-    <t>Inicio del proyecto y especificación de requisitos</t>
+    <t>Inicio del proyecto, especificación de requisitos y modelo del negocio.</t>
   </si>
   <si>
     <t>it1-it5 (Elaboración)</t>
@@ -1102,7 +1102,7 @@
     <t>0.2.0</t>
   </si>
   <si>
-    <t>Implementación de los casos de uso con prioridad 1 relacionados con la gestión del sistema</t>
+    <t>Implementación de los casos de uso principales con prioridad 1 relacionados con la gestión del sistema. Análisis y diseño inicial.</t>
   </si>
   <si>
     <t>it6-it10 (Elaboración)</t>
@@ -1111,7 +1111,7 @@
     <t>0.3.0</t>
   </si>
   <si>
-    <t>Descripción e implementación de los casos de uso con prioridad 2</t>
+    <t>Ampliación del modelo con casos de uso de prioridad 2. Refinamiento de la arquitectura y pruebas iniciales</t>
   </si>
   <si>
     <t>it11-it15 (Construcción)</t>
@@ -1120,13 +1120,34 @@
     <t>0.4.0</t>
   </si>
   <si>
-    <t>Inicio de la construcción e implementación del cliente-servidor</t>
-  </si>
-  <si>
-    <t>it16-it17</t>
-  </si>
-  <si>
-    <t>it18-it21</t>
+    <t>Desarrollo de la aplicación cliente-servidor. Integración de componentes y pruebas unitarias.</t>
+  </si>
+  <si>
+    <t>it16-it17(Construccion)</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>Optimización del código, mejora de la interfaz y preparación para pruebas de aceptación.</t>
+  </si>
+  <si>
+    <t>it18-it22(Construccion)</t>
+  </si>
+  <si>
+    <t>0.6.0</t>
+  </si>
+  <si>
+    <t>Finalización del sistema y validación de funcionalidades completas.</t>
+  </si>
+  <si>
+    <t>it23(Transición)</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Pruebas finales, despliegue del sistema y entrega al cliente.</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -2232,15 +2253,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2254,7 +2266,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2589,9 +2601,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2646,13 +2655,100 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2673,93 +2769,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2772,19 +2781,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3134,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:BX56"/>
   <sheetViews>
-    <sheetView topLeftCell="P27" workbookViewId="0">
-      <selection activeCell="AR60" sqref="AR60"/>
+    <sheetView tabSelected="1" topLeftCell="P27" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3161,39 +3161,39 @@
       <c r="R4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141"/>
-      <c r="X4" s="141"/>
-      <c r="Y4" s="141"/>
-      <c r="Z4" s="141"/>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="142"/>
+      <c r="S4" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="170"/>
+      <c r="AA4" s="170"/>
+      <c r="AB4" s="170"/>
+      <c r="AC4" s="171"/>
       <c r="AD4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="141"/>
-      <c r="AH4" s="141"/>
-      <c r="AI4" s="141"/>
-      <c r="AJ4" s="141"/>
-      <c r="AK4" s="141"/>
-      <c r="AL4" s="141"/>
-      <c r="AM4" s="141"/>
-      <c r="AN4" s="141"/>
-      <c r="AO4" s="141"/>
-      <c r="AP4" s="146" t="s">
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="170"/>
+      <c r="AJ4" s="170"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="170"/>
+      <c r="AP4" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="AQ4" s="147"/>
+      <c r="AQ4" s="175"/>
     </row>
     <row r="5" spans="3:43">
       <c r="C5" t="s">
@@ -3232,7 +3232,7 @@
       <c r="AB5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="123" t="s">
+      <c r="AC5" s="122" t="s">
         <v>17</v>
       </c>
       <c r="AD5" s="55" t="s">
@@ -3271,10 +3271,10 @@
       <c r="AO5" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="AP5" s="148" t="s">
+      <c r="AP5" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="AQ5" s="149"/>
+      <c r="AQ5" s="177"/>
     </row>
     <row r="6" spans="3:43">
       <c r="C6" t="s">
@@ -3286,101 +3286,101 @@
       <c r="R6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="124">
+      <c r="S6" s="123">
         <v>880</v>
       </c>
-      <c r="T6" s="125">
+      <c r="T6" s="124">
         <f>S27</f>
         <v>946</v>
       </c>
-      <c r="U6" s="126">
+      <c r="U6" s="125">
         <f>X27</f>
         <v>1320</v>
       </c>
-      <c r="V6" s="126">
+      <c r="V6" s="125">
         <f>AC27</f>
         <v>1386</v>
       </c>
-      <c r="W6" s="126">
+      <c r="W6" s="125">
         <f>AH27</f>
         <v>1804</v>
       </c>
-      <c r="X6" s="126">
+      <c r="X6" s="125">
         <f>AM27</f>
         <v>1188</v>
       </c>
-      <c r="Y6" s="127">
+      <c r="Y6" s="126">
         <f>AR27</f>
         <v>946</v>
       </c>
-      <c r="Z6" s="127">
+      <c r="Z6" s="126">
         <f>AW27</f>
         <v>1012</v>
       </c>
-      <c r="AA6" s="127">
+      <c r="AA6" s="126">
         <f>BB27</f>
         <v>484</v>
       </c>
-      <c r="AB6" s="128">
+      <c r="AB6" s="127">
         <f>S41</f>
         <v>792</v>
       </c>
-      <c r="AC6" s="129">
+      <c r="AC6" s="128">
         <f>X41</f>
         <v>814</v>
       </c>
-      <c r="AD6" s="130">
+      <c r="AD6" s="129">
         <f>AC41</f>
         <v>814</v>
       </c>
-      <c r="AE6" s="127">
+      <c r="AE6" s="126">
         <f>AH41</f>
         <v>726</v>
       </c>
-      <c r="AF6" s="127">
+      <c r="AF6" s="126">
         <f>AM41</f>
         <v>858</v>
       </c>
-      <c r="AG6" s="127">
+      <c r="AG6" s="126">
         <f>AR41</f>
         <v>902</v>
       </c>
-      <c r="AH6" s="127">
+      <c r="AH6" s="126">
         <f>AW41</f>
         <v>902</v>
       </c>
-      <c r="AI6" s="127">
+      <c r="AI6" s="126">
         <f>BB41</f>
         <v>528</v>
       </c>
-      <c r="AJ6" s="127">
+      <c r="AJ6" s="126">
         <f>S55</f>
         <v>594</v>
       </c>
-      <c r="AK6" s="127">
+      <c r="AK6" s="126">
         <f>X55</f>
         <v>528</v>
       </c>
-      <c r="AL6" s="127">
+      <c r="AL6" s="126">
         <f>AC55</f>
         <v>660</v>
       </c>
-      <c r="AM6" s="127">
+      <c r="AM6" s="126">
         <f>AH55</f>
         <v>572</v>
       </c>
-      <c r="AN6" s="127">
+      <c r="AN6" s="126">
         <f>AM55</f>
         <v>814</v>
       </c>
-      <c r="AO6" s="128">
+      <c r="AO6" s="127">
         <f>AR55</f>
         <v>528</v>
       </c>
-      <c r="AP6" s="144">
+      <c r="AP6" s="172">
         <v>1760</v>
       </c>
-      <c r="AQ6" s="145"/>
+      <c r="AQ6" s="173"/>
     </row>
     <row r="7" spans="3:43">
       <c r="C7" t="s">
@@ -3389,79 +3389,79 @@
       <c r="R7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="124">
+      <c r="S7" s="123">
         <v>40</v>
       </c>
-      <c r="T7" s="125">
+      <c r="T7" s="124">
         <v>43</v>
       </c>
-      <c r="U7" s="126">
+      <c r="U7" s="125">
         <v>60</v>
       </c>
-      <c r="V7" s="126">
+      <c r="V7" s="125">
         <v>63</v>
       </c>
-      <c r="W7" s="126">
+      <c r="W7" s="125">
         <v>82</v>
       </c>
-      <c r="X7" s="126">
+      <c r="X7" s="125">
         <v>54</v>
       </c>
-      <c r="Y7" s="126">
+      <c r="Y7" s="125">
         <v>43</v>
       </c>
-      <c r="Z7" s="126">
+      <c r="Z7" s="125">
         <v>46</v>
       </c>
-      <c r="AA7" s="126">
+      <c r="AA7" s="125">
         <v>22</v>
       </c>
-      <c r="AB7" s="131">
+      <c r="AB7" s="130">
         <v>36</v>
       </c>
-      <c r="AC7" s="132">
+      <c r="AC7" s="131">
         <v>37</v>
       </c>
-      <c r="AD7" s="125">
+      <c r="AD7" s="124">
         <v>37</v>
       </c>
-      <c r="AE7" s="126">
+      <c r="AE7" s="125">
         <v>33</v>
       </c>
-      <c r="AF7" s="126">
+      <c r="AF7" s="125">
         <v>39</v>
       </c>
-      <c r="AG7" s="126">
+      <c r="AG7" s="125">
         <v>41</v>
       </c>
-      <c r="AH7" s="126">
+      <c r="AH7" s="125">
         <v>41</v>
       </c>
-      <c r="AI7" s="126">
+      <c r="AI7" s="125">
         <v>24</v>
       </c>
-      <c r="AJ7" s="126">
+      <c r="AJ7" s="125">
         <v>27</v>
       </c>
-      <c r="AK7" s="126">
+      <c r="AK7" s="125">
         <v>24</v>
       </c>
-      <c r="AL7" s="126">
+      <c r="AL7" s="125">
         <v>30</v>
       </c>
-      <c r="AM7" s="126">
+      <c r="AM7" s="125">
         <v>26</v>
       </c>
-      <c r="AN7" s="126">
+      <c r="AN7" s="125">
         <v>37</v>
       </c>
-      <c r="AO7" s="131">
+      <c r="AO7" s="130">
         <v>24</v>
       </c>
-      <c r="AP7" s="150">
+      <c r="AP7" s="162">
         <v>80</v>
       </c>
-      <c r="AQ7" s="151"/>
+      <c r="AQ7" s="163"/>
     </row>
     <row r="8" spans="3:43">
       <c r="C8" t="s">
@@ -3470,79 +3470,79 @@
       <c r="R8" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="133">
+      <c r="S8" s="132">
         <v>6</v>
       </c>
-      <c r="T8" s="134">
+      <c r="T8" s="133">
         <v>6</v>
       </c>
-      <c r="U8" s="135">
+      <c r="U8" s="134">
         <v>8</v>
       </c>
-      <c r="V8" s="135">
+      <c r="V8" s="134">
         <v>8</v>
       </c>
-      <c r="W8" s="135">
+      <c r="W8" s="134">
         <v>11</v>
       </c>
-      <c r="X8" s="135">
+      <c r="X8" s="134">
         <v>7</v>
       </c>
-      <c r="Y8" s="136">
+      <c r="Y8" s="135">
         <v>6</v>
       </c>
-      <c r="Z8" s="136">
+      <c r="Z8" s="135">
         <v>6</v>
       </c>
-      <c r="AA8" s="136">
+      <c r="AA8" s="135">
         <v>3</v>
       </c>
-      <c r="AB8" s="137">
+      <c r="AB8" s="136">
         <v>5</v>
       </c>
-      <c r="AC8" s="138">
+      <c r="AC8" s="137">
         <v>5</v>
       </c>
-      <c r="AD8" s="139">
+      <c r="AD8" s="138">
         <v>5</v>
       </c>
-      <c r="AE8" s="136">
+      <c r="AE8" s="135">
         <v>5</v>
       </c>
-      <c r="AF8" s="136">
+      <c r="AF8" s="135">
         <v>5</v>
       </c>
-      <c r="AG8" s="136">
+      <c r="AG8" s="135">
         <v>6</v>
       </c>
-      <c r="AH8" s="136">
+      <c r="AH8" s="135">
         <v>6</v>
       </c>
-      <c r="AI8" s="136">
+      <c r="AI8" s="135">
         <v>3</v>
       </c>
-      <c r="AJ8" s="136">
+      <c r="AJ8" s="135">
         <v>4</v>
       </c>
-      <c r="AK8" s="136">
+      <c r="AK8" s="135">
         <v>3</v>
       </c>
-      <c r="AL8" s="136">
+      <c r="AL8" s="135">
         <v>4</v>
       </c>
-      <c r="AM8" s="136">
+      <c r="AM8" s="135">
         <v>4</v>
       </c>
-      <c r="AN8" s="136">
+      <c r="AN8" s="135">
         <v>5</v>
       </c>
-      <c r="AO8" s="137">
+      <c r="AO8" s="136">
         <v>3</v>
       </c>
-      <c r="AP8" s="152">
+      <c r="AP8" s="164">
         <v>10</v>
       </c>
-      <c r="AQ8" s="153"/>
+      <c r="AQ8" s="165"/>
     </row>
     <row r="9" spans="3:43">
       <c r="C9" t="s">
@@ -3669,55 +3669,55 @@
       <c r="U18" s="143"/>
       <c r="V18" s="143"/>
       <c r="W18" s="143"/>
-      <c r="X18" s="169" t="s">
+      <c r="X18" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="169"/>
-      <c r="AB18" s="169"/>
-      <c r="AC18" s="169" t="s">
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="AD18" s="169"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="169"/>
-      <c r="AG18" s="169"/>
-      <c r="AH18" s="169" t="s">
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="AI18" s="169"/>
-      <c r="AJ18" s="169"/>
-      <c r="AK18" s="169"/>
-      <c r="AL18" s="169"/>
-      <c r="AM18" s="169" t="s">
+      <c r="AI18" s="140"/>
+      <c r="AJ18" s="140"/>
+      <c r="AK18" s="140"/>
+      <c r="AL18" s="140"/>
+      <c r="AM18" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="AN18" s="169"/>
-      <c r="AO18" s="169"/>
-      <c r="AP18" s="169"/>
-      <c r="AQ18" s="169"/>
-      <c r="AR18" s="169" t="s">
+      <c r="AN18" s="140"/>
+      <c r="AO18" s="140"/>
+      <c r="AP18" s="140"/>
+      <c r="AQ18" s="140"/>
+      <c r="AR18" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="AS18" s="169"/>
-      <c r="AT18" s="169"/>
-      <c r="AU18" s="169"/>
-      <c r="AV18" s="169"/>
-      <c r="AW18" s="169" t="s">
+      <c r="AS18" s="140"/>
+      <c r="AT18" s="140"/>
+      <c r="AU18" s="140"/>
+      <c r="AV18" s="140"/>
+      <c r="AW18" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="AX18" s="169"/>
-      <c r="AY18" s="169"/>
-      <c r="AZ18" s="169"/>
-      <c r="BA18" s="169"/>
-      <c r="BB18" s="169" t="s">
+      <c r="AX18" s="140"/>
+      <c r="AY18" s="140"/>
+      <c r="AZ18" s="140"/>
+      <c r="BA18" s="140"/>
+      <c r="BB18" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="BC18" s="169"/>
-      <c r="BD18" s="169"/>
-      <c r="BE18" s="169"/>
-      <c r="BF18" s="178"/>
+      <c r="BC18" s="140"/>
+      <c r="BD18" s="140"/>
+      <c r="BE18" s="140"/>
+      <c r="BF18" s="145"/>
     </row>
     <row r="19" spans="5:76">
       <c r="E19" s="1" t="s">
@@ -4819,70 +4819,70 @@
       <c r="R26" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="S26" s="173">
+      <c r="S26" s="141">
         <f>SUM(S20:W25)</f>
         <v>43</v>
       </c>
-      <c r="T26" s="173"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="173"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="158">
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="142">
         <f t="shared" ref="X26" si="0">SUM(X20:AB25)</f>
         <v>60</v>
       </c>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158">
+      <c r="Y26" s="142"/>
+      <c r="Z26" s="142"/>
+      <c r="AA26" s="142"/>
+      <c r="AB26" s="142"/>
+      <c r="AC26" s="142">
         <f t="shared" ref="AC26" si="1">SUM(AC20:AG25)</f>
         <v>63</v>
       </c>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158">
+      <c r="AD26" s="142"/>
+      <c r="AE26" s="142"/>
+      <c r="AF26" s="142"/>
+      <c r="AG26" s="142"/>
+      <c r="AH26" s="142">
         <f t="shared" ref="AH26" si="2">SUM(AH20:AL25)</f>
         <v>82</v>
       </c>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="158"/>
-      <c r="AK26" s="158"/>
-      <c r="AL26" s="158"/>
-      <c r="AM26" s="158">
+      <c r="AI26" s="142"/>
+      <c r="AJ26" s="142"/>
+      <c r="AK26" s="142"/>
+      <c r="AL26" s="142"/>
+      <c r="AM26" s="142">
         <f t="shared" ref="AM26" si="3">SUM(AM20:AQ25)</f>
         <v>54</v>
       </c>
-      <c r="AN26" s="158"/>
-      <c r="AO26" s="158"/>
-      <c r="AP26" s="158"/>
-      <c r="AQ26" s="158"/>
-      <c r="AR26" s="158">
+      <c r="AN26" s="142"/>
+      <c r="AO26" s="142"/>
+      <c r="AP26" s="142"/>
+      <c r="AQ26" s="142"/>
+      <c r="AR26" s="142">
         <f t="shared" ref="AR26" si="4">SUM(AR20:AV25)</f>
         <v>43</v>
       </c>
-      <c r="AS26" s="158"/>
-      <c r="AT26" s="158"/>
-      <c r="AU26" s="158"/>
-      <c r="AV26" s="158"/>
-      <c r="AW26" s="158">
+      <c r="AS26" s="142"/>
+      <c r="AT26" s="142"/>
+      <c r="AU26" s="142"/>
+      <c r="AV26" s="142"/>
+      <c r="AW26" s="142">
         <f t="shared" ref="AW26" si="5">SUM(AW20:BA25)</f>
         <v>46</v>
       </c>
-      <c r="AX26" s="158"/>
-      <c r="AY26" s="158"/>
-      <c r="AZ26" s="158"/>
-      <c r="BA26" s="158"/>
-      <c r="BB26" s="158">
+      <c r="AX26" s="142"/>
+      <c r="AY26" s="142"/>
+      <c r="AZ26" s="142"/>
+      <c r="BA26" s="142"/>
+      <c r="BB26" s="142">
         <f t="shared" ref="BB26" si="6">SUM(BB20:BF25)</f>
         <v>22</v>
       </c>
-      <c r="BC26" s="158"/>
-      <c r="BD26" s="158"/>
-      <c r="BE26" s="158"/>
-      <c r="BF26" s="177"/>
+      <c r="BC26" s="142"/>
+      <c r="BD26" s="142"/>
+      <c r="BE26" s="142"/>
+      <c r="BF26" s="146"/>
     </row>
     <row r="27" spans="5:76">
       <c r="G27" s="10" t="s">
@@ -4913,70 +4913,70 @@
       <c r="R27" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="173">
+      <c r="S27" s="141">
         <f>22*S26</f>
         <v>946</v>
       </c>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="158">
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="142">
         <f t="shared" ref="X27" si="7">22*X26</f>
         <v>1320</v>
       </c>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158">
+      <c r="Y27" s="142"/>
+      <c r="Z27" s="142"/>
+      <c r="AA27" s="142"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="142">
         <f t="shared" ref="AC27" si="8">22*AC26</f>
         <v>1386</v>
       </c>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158">
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="142"/>
+      <c r="AF27" s="142"/>
+      <c r="AG27" s="142"/>
+      <c r="AH27" s="142">
         <f t="shared" ref="AH27" si="9">22*AH26</f>
         <v>1804</v>
       </c>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="158">
+      <c r="AI27" s="142"/>
+      <c r="AJ27" s="142"/>
+      <c r="AK27" s="142"/>
+      <c r="AL27" s="142"/>
+      <c r="AM27" s="142">
         <f t="shared" ref="AM27" si="10">22*AM26</f>
         <v>1188</v>
       </c>
-      <c r="AN27" s="158"/>
-      <c r="AO27" s="158"/>
-      <c r="AP27" s="158"/>
-      <c r="AQ27" s="158"/>
-      <c r="AR27" s="158">
+      <c r="AN27" s="142"/>
+      <c r="AO27" s="142"/>
+      <c r="AP27" s="142"/>
+      <c r="AQ27" s="142"/>
+      <c r="AR27" s="142">
         <f t="shared" ref="AR27" si="11">22*AR26</f>
         <v>946</v>
       </c>
-      <c r="AS27" s="158"/>
-      <c r="AT27" s="158"/>
-      <c r="AU27" s="158"/>
-      <c r="AV27" s="158"/>
-      <c r="AW27" s="158">
+      <c r="AS27" s="142"/>
+      <c r="AT27" s="142"/>
+      <c r="AU27" s="142"/>
+      <c r="AV27" s="142"/>
+      <c r="AW27" s="142">
         <f t="shared" ref="AW27" si="12">22*AW26</f>
         <v>1012</v>
       </c>
-      <c r="AX27" s="158"/>
-      <c r="AY27" s="158"/>
-      <c r="AZ27" s="158"/>
-      <c r="BA27" s="158"/>
-      <c r="BB27" s="158">
+      <c r="AX27" s="142"/>
+      <c r="AY27" s="142"/>
+      <c r="AZ27" s="142"/>
+      <c r="BA27" s="142"/>
+      <c r="BB27" s="142">
         <f t="shared" ref="BB27" si="13">22*BB26</f>
         <v>484</v>
       </c>
-      <c r="BC27" s="158"/>
-      <c r="BD27" s="158"/>
-      <c r="BE27" s="158"/>
-      <c r="BF27" s="177"/>
+      <c r="BC27" s="142"/>
+      <c r="BD27" s="142"/>
+      <c r="BE27" s="142"/>
+      <c r="BF27" s="146"/>
     </row>
     <row r="28" spans="5:76">
       <c r="G28" s="14" t="s">
@@ -5007,70 +5007,70 @@
       <c r="R28" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="S28" s="165">
+      <c r="S28" s="144">
         <f>ROUNDUP(S26/8,0)</f>
         <v>6</v>
       </c>
-      <c r="T28" s="165"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="160">
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="147">
         <f t="shared" ref="X28" si="14">ROUNDUP(X26/8,0)</f>
         <v>8</v>
       </c>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160">
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147">
         <f t="shared" ref="AC28" si="15">ROUNDUP(AC26/8,0)</f>
         <v>8</v>
       </c>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160">
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="147"/>
+      <c r="AF28" s="147"/>
+      <c r="AG28" s="147"/>
+      <c r="AH28" s="147">
         <f t="shared" ref="AH28" si="16">ROUNDUP(AH26/8,0)</f>
         <v>11</v>
       </c>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="160">
+      <c r="AI28" s="147"/>
+      <c r="AJ28" s="147"/>
+      <c r="AK28" s="147"/>
+      <c r="AL28" s="147"/>
+      <c r="AM28" s="147">
         <f t="shared" ref="AM28" si="17">ROUNDUP(AM26/8,0)</f>
         <v>7</v>
       </c>
-      <c r="AN28" s="160"/>
-      <c r="AO28" s="160"/>
-      <c r="AP28" s="160"/>
-      <c r="AQ28" s="160"/>
-      <c r="AR28" s="160">
+      <c r="AN28" s="147"/>
+      <c r="AO28" s="147"/>
+      <c r="AP28" s="147"/>
+      <c r="AQ28" s="147"/>
+      <c r="AR28" s="147">
         <f t="shared" ref="AR28" si="18">ROUNDUP(AR26/8,0)</f>
         <v>6</v>
       </c>
-      <c r="AS28" s="160"/>
-      <c r="AT28" s="160"/>
-      <c r="AU28" s="160"/>
-      <c r="AV28" s="160"/>
-      <c r="AW28" s="160">
+      <c r="AS28" s="147"/>
+      <c r="AT28" s="147"/>
+      <c r="AU28" s="147"/>
+      <c r="AV28" s="147"/>
+      <c r="AW28" s="147">
         <f t="shared" ref="AW28" si="19">ROUNDUP(AW26/8,0)</f>
         <v>6</v>
       </c>
-      <c r="AX28" s="160"/>
-      <c r="AY28" s="160"/>
-      <c r="AZ28" s="160"/>
-      <c r="BA28" s="160"/>
-      <c r="BB28" s="160">
+      <c r="AX28" s="147"/>
+      <c r="AY28" s="147"/>
+      <c r="AZ28" s="147"/>
+      <c r="BA28" s="147"/>
+      <c r="BB28" s="147">
         <f t="shared" ref="BB28" si="20">ROUNDUP(BB26/8,0)</f>
         <v>3</v>
       </c>
-      <c r="BC28" s="160"/>
-      <c r="BD28" s="160"/>
-      <c r="BE28" s="160"/>
-      <c r="BF28" s="176"/>
+      <c r="BC28" s="147"/>
+      <c r="BD28" s="147"/>
+      <c r="BE28" s="147"/>
+      <c r="BF28" s="148"/>
     </row>
     <row r="29" spans="5:76">
       <c r="G29" s="17" t="s">
@@ -5311,55 +5311,55 @@
       <c r="U32" s="143"/>
       <c r="V32" s="143"/>
       <c r="W32" s="143"/>
-      <c r="X32" s="169" t="s">
+      <c r="X32" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="Y32" s="169"/>
-      <c r="Z32" s="169"/>
-      <c r="AA32" s="169"/>
-      <c r="AB32" s="169"/>
-      <c r="AC32" s="169" t="s">
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="AD32" s="169"/>
-      <c r="AE32" s="169"/>
-      <c r="AF32" s="169"/>
-      <c r="AG32" s="169"/>
-      <c r="AH32" s="169" t="s">
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="AI32" s="169"/>
-      <c r="AJ32" s="169"/>
-      <c r="AK32" s="169"/>
-      <c r="AL32" s="169"/>
-      <c r="AM32" s="169" t="s">
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="AN32" s="169"/>
-      <c r="AO32" s="169"/>
-      <c r="AP32" s="169"/>
-      <c r="AQ32" s="169"/>
-      <c r="AR32" s="169" t="s">
+      <c r="AN32" s="140"/>
+      <c r="AO32" s="140"/>
+      <c r="AP32" s="140"/>
+      <c r="AQ32" s="140"/>
+      <c r="AR32" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="AS32" s="169"/>
-      <c r="AT32" s="169"/>
-      <c r="AU32" s="169"/>
-      <c r="AV32" s="169"/>
-      <c r="AW32" s="169" t="s">
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="140"/>
+      <c r="AU32" s="140"/>
+      <c r="AV32" s="140"/>
+      <c r="AW32" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="AX32" s="169"/>
-      <c r="AY32" s="169"/>
-      <c r="AZ32" s="169"/>
-      <c r="BA32" s="169"/>
-      <c r="BB32" s="169" t="s">
+      <c r="AX32" s="140"/>
+      <c r="AY32" s="140"/>
+      <c r="AZ32" s="140"/>
+      <c r="BA32" s="140"/>
+      <c r="BB32" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="BC32" s="169"/>
-      <c r="BD32" s="169"/>
-      <c r="BE32" s="169"/>
-      <c r="BF32" s="178"/>
+      <c r="BC32" s="140"/>
+      <c r="BD32" s="140"/>
+      <c r="BE32" s="140"/>
+      <c r="BF32" s="145"/>
       <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
@@ -6434,70 +6434,70 @@
       <c r="R40" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="S40" s="173">
+      <c r="S40" s="141">
         <f>SUM(S34:W39)</f>
         <v>36</v>
       </c>
-      <c r="T40" s="173"/>
-      <c r="U40" s="173"/>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
-      <c r="X40" s="158">
+      <c r="T40" s="141"/>
+      <c r="U40" s="141"/>
+      <c r="V40" s="141"/>
+      <c r="W40" s="141"/>
+      <c r="X40" s="142">
         <f t="shared" ref="X40" si="21">SUM(X34:AB39)</f>
         <v>37</v>
       </c>
-      <c r="Y40" s="158"/>
-      <c r="Z40" s="158"/>
-      <c r="AA40" s="158"/>
-      <c r="AB40" s="158"/>
-      <c r="AC40" s="158">
+      <c r="Y40" s="142"/>
+      <c r="Z40" s="142"/>
+      <c r="AA40" s="142"/>
+      <c r="AB40" s="142"/>
+      <c r="AC40" s="142">
         <f t="shared" ref="AC40" si="22">SUM(AC34:AG39)</f>
         <v>37</v>
       </c>
-      <c r="AD40" s="158"/>
-      <c r="AE40" s="158"/>
-      <c r="AF40" s="158"/>
-      <c r="AG40" s="158"/>
-      <c r="AH40" s="158">
+      <c r="AD40" s="142"/>
+      <c r="AE40" s="142"/>
+      <c r="AF40" s="142"/>
+      <c r="AG40" s="142"/>
+      <c r="AH40" s="142">
         <f t="shared" ref="AH40" si="23">SUM(AH34:AL39)</f>
         <v>33</v>
       </c>
-      <c r="AI40" s="158"/>
-      <c r="AJ40" s="158"/>
-      <c r="AK40" s="158"/>
-      <c r="AL40" s="158"/>
-      <c r="AM40" s="158">
+      <c r="AI40" s="142"/>
+      <c r="AJ40" s="142"/>
+      <c r="AK40" s="142"/>
+      <c r="AL40" s="142"/>
+      <c r="AM40" s="142">
         <f t="shared" ref="AM40" si="24">SUM(AM34:AQ39)</f>
         <v>39</v>
       </c>
-      <c r="AN40" s="158"/>
-      <c r="AO40" s="158"/>
-      <c r="AP40" s="158"/>
-      <c r="AQ40" s="158"/>
-      <c r="AR40" s="173">
+      <c r="AN40" s="142"/>
+      <c r="AO40" s="142"/>
+      <c r="AP40" s="142"/>
+      <c r="AQ40" s="142"/>
+      <c r="AR40" s="141">
         <f>SUM(AR34:AV39)</f>
         <v>41</v>
       </c>
-      <c r="AS40" s="173"/>
-      <c r="AT40" s="173"/>
-      <c r="AU40" s="173"/>
-      <c r="AV40" s="173"/>
-      <c r="AW40" s="158">
+      <c r="AS40" s="141"/>
+      <c r="AT40" s="141"/>
+      <c r="AU40" s="141"/>
+      <c r="AV40" s="141"/>
+      <c r="AW40" s="142">
         <f t="shared" ref="AW40" si="25">SUM(AW34:BA39)</f>
         <v>41</v>
       </c>
-      <c r="AX40" s="158"/>
-      <c r="AY40" s="158"/>
-      <c r="AZ40" s="158"/>
-      <c r="BA40" s="158"/>
-      <c r="BB40" s="173">
+      <c r="AX40" s="142"/>
+      <c r="AY40" s="142"/>
+      <c r="AZ40" s="142"/>
+      <c r="BA40" s="142"/>
+      <c r="BB40" s="141">
         <f>SUM(BB34:BF39)</f>
         <v>24</v>
       </c>
-      <c r="BC40" s="173"/>
-      <c r="BD40" s="173"/>
-      <c r="BE40" s="173"/>
-      <c r="BF40" s="174"/>
+      <c r="BC40" s="141"/>
+      <c r="BD40" s="141"/>
+      <c r="BE40" s="141"/>
+      <c r="BF40" s="149"/>
     </row>
     <row r="41" spans="5:58">
       <c r="G41" s="22"/>
@@ -6511,139 +6511,139 @@
       <c r="R41" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="S41" s="173">
+      <c r="S41" s="141">
         <f>22*S40</f>
         <v>792</v>
       </c>
-      <c r="T41" s="173"/>
-      <c r="U41" s="173"/>
-      <c r="V41" s="173"/>
-      <c r="W41" s="173"/>
-      <c r="X41" s="158">
+      <c r="T41" s="141"/>
+      <c r="U41" s="141"/>
+      <c r="V41" s="141"/>
+      <c r="W41" s="141"/>
+      <c r="X41" s="142">
         <f t="shared" ref="X41" si="26">22*X40</f>
         <v>814</v>
       </c>
-      <c r="Y41" s="158"/>
-      <c r="Z41" s="158"/>
-      <c r="AA41" s="158"/>
-      <c r="AB41" s="158"/>
-      <c r="AC41" s="158">
+      <c r="Y41" s="142"/>
+      <c r="Z41" s="142"/>
+      <c r="AA41" s="142"/>
+      <c r="AB41" s="142"/>
+      <c r="AC41" s="142">
         <f t="shared" ref="AC41" si="27">22*AC40</f>
         <v>814</v>
       </c>
-      <c r="AD41" s="158"/>
-      <c r="AE41" s="158"/>
-      <c r="AF41" s="158"/>
-      <c r="AG41" s="158"/>
-      <c r="AH41" s="158">
+      <c r="AD41" s="142"/>
+      <c r="AE41" s="142"/>
+      <c r="AF41" s="142"/>
+      <c r="AG41" s="142"/>
+      <c r="AH41" s="142">
         <f t="shared" ref="AH41" si="28">22*AH40</f>
         <v>726</v>
       </c>
-      <c r="AI41" s="158"/>
-      <c r="AJ41" s="158"/>
-      <c r="AK41" s="158"/>
-      <c r="AL41" s="158"/>
-      <c r="AM41" s="158">
+      <c r="AI41" s="142"/>
+      <c r="AJ41" s="142"/>
+      <c r="AK41" s="142"/>
+      <c r="AL41" s="142"/>
+      <c r="AM41" s="142">
         <f t="shared" ref="AM41" si="29">22*AM40</f>
         <v>858</v>
       </c>
-      <c r="AN41" s="158"/>
-      <c r="AO41" s="158"/>
-      <c r="AP41" s="158"/>
-      <c r="AQ41" s="158"/>
-      <c r="AR41" s="173">
+      <c r="AN41" s="142"/>
+      <c r="AO41" s="142"/>
+      <c r="AP41" s="142"/>
+      <c r="AQ41" s="142"/>
+      <c r="AR41" s="141">
         <f>22*AR40</f>
         <v>902</v>
       </c>
-      <c r="AS41" s="173"/>
-      <c r="AT41" s="173"/>
-      <c r="AU41" s="173"/>
-      <c r="AV41" s="173"/>
-      <c r="AW41" s="158">
+      <c r="AS41" s="141"/>
+      <c r="AT41" s="141"/>
+      <c r="AU41" s="141"/>
+      <c r="AV41" s="141"/>
+      <c r="AW41" s="142">
         <f t="shared" ref="AW41" si="30">22*AW40</f>
         <v>902</v>
       </c>
-      <c r="AX41" s="158"/>
-      <c r="AY41" s="158"/>
-      <c r="AZ41" s="158"/>
-      <c r="BA41" s="158"/>
-      <c r="BB41" s="173">
+      <c r="AX41" s="142"/>
+      <c r="AY41" s="142"/>
+      <c r="AZ41" s="142"/>
+      <c r="BA41" s="142"/>
+      <c r="BB41" s="141">
         <f>22*BB40</f>
         <v>528</v>
       </c>
-      <c r="BC41" s="173"/>
-      <c r="BD41" s="173"/>
-      <c r="BE41" s="173"/>
-      <c r="BF41" s="174"/>
+      <c r="BC41" s="141"/>
+      <c r="BD41" s="141"/>
+      <c r="BE41" s="141"/>
+      <c r="BF41" s="149"/>
     </row>
     <row r="42" spans="5:58">
       <c r="R42" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="S42" s="165">
+      <c r="S42" s="144">
         <f>ROUNDUP(S40/8,0)</f>
         <v>5</v>
       </c>
-      <c r="T42" s="165"/>
-      <c r="U42" s="165"/>
-      <c r="V42" s="165"/>
-      <c r="W42" s="165"/>
-      <c r="X42" s="160">
+      <c r="T42" s="144"/>
+      <c r="U42" s="144"/>
+      <c r="V42" s="144"/>
+      <c r="W42" s="144"/>
+      <c r="X42" s="147">
         <f t="shared" ref="X42" si="31">ROUNDUP(X40/8,0)</f>
         <v>5</v>
       </c>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="160"/>
-      <c r="AA42" s="160"/>
-      <c r="AB42" s="160"/>
-      <c r="AC42" s="160">
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="147">
         <f t="shared" ref="AC42" si="32">ROUNDUP(AC40/8,0)</f>
         <v>5</v>
       </c>
-      <c r="AD42" s="160"/>
-      <c r="AE42" s="160"/>
-      <c r="AF42" s="160"/>
-      <c r="AG42" s="160"/>
-      <c r="AH42" s="160">
+      <c r="AD42" s="147"/>
+      <c r="AE42" s="147"/>
+      <c r="AF42" s="147"/>
+      <c r="AG42" s="147"/>
+      <c r="AH42" s="147">
         <f t="shared" ref="AH42" si="33">ROUNDUP(AH40/8,0)</f>
         <v>5</v>
       </c>
-      <c r="AI42" s="160"/>
-      <c r="AJ42" s="160"/>
-      <c r="AK42" s="160"/>
-      <c r="AL42" s="160"/>
-      <c r="AM42" s="160">
+      <c r="AI42" s="147"/>
+      <c r="AJ42" s="147"/>
+      <c r="AK42" s="147"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="147">
         <f t="shared" ref="AM42" si="34">ROUNDUP(AM40/8,0)</f>
         <v>5</v>
       </c>
-      <c r="AN42" s="160"/>
-      <c r="AO42" s="160"/>
-      <c r="AP42" s="160"/>
-      <c r="AQ42" s="160"/>
-      <c r="AR42" s="165">
+      <c r="AN42" s="147"/>
+      <c r="AO42" s="147"/>
+      <c r="AP42" s="147"/>
+      <c r="AQ42" s="147"/>
+      <c r="AR42" s="144">
         <f>ROUNDUP(AR40/8,0)</f>
         <v>6</v>
       </c>
-      <c r="AS42" s="165"/>
-      <c r="AT42" s="165"/>
-      <c r="AU42" s="165"/>
-      <c r="AV42" s="165"/>
-      <c r="AW42" s="160">
+      <c r="AS42" s="144"/>
+      <c r="AT42" s="144"/>
+      <c r="AU42" s="144"/>
+      <c r="AV42" s="144"/>
+      <c r="AW42" s="147">
         <f t="shared" ref="AW42" si="35">ROUNDUP(AW40/8,0)</f>
         <v>6</v>
       </c>
-      <c r="AX42" s="160"/>
-      <c r="AY42" s="160"/>
-      <c r="AZ42" s="160"/>
-      <c r="BA42" s="160"/>
-      <c r="BB42" s="165">
+      <c r="AX42" s="147"/>
+      <c r="AY42" s="147"/>
+      <c r="AZ42" s="147"/>
+      <c r="BA42" s="147"/>
+      <c r="BB42" s="144">
         <f>ROUNDUP(BB40/8,0)</f>
         <v>3</v>
       </c>
-      <c r="BC42" s="165"/>
-      <c r="BD42" s="165"/>
-      <c r="BE42" s="165"/>
-      <c r="BF42" s="175"/>
+      <c r="BC42" s="144"/>
+      <c r="BD42" s="144"/>
+      <c r="BE42" s="144"/>
+      <c r="BF42" s="154"/>
     </row>
     <row r="43" spans="5:58">
       <c r="S43" s="76"/>
@@ -6780,41 +6780,41 @@
       <c r="U46" s="143"/>
       <c r="V46" s="143"/>
       <c r="W46" s="143"/>
-      <c r="X46" s="169" t="s">
+      <c r="X46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="Y46" s="169"/>
-      <c r="Z46" s="169"/>
-      <c r="AA46" s="169"/>
-      <c r="AB46" s="169"/>
-      <c r="AC46" s="169" t="s">
+      <c r="Y46" s="140"/>
+      <c r="Z46" s="140"/>
+      <c r="AA46" s="140"/>
+      <c r="AB46" s="140"/>
+      <c r="AC46" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="AD46" s="169"/>
-      <c r="AE46" s="169"/>
-      <c r="AF46" s="169"/>
-      <c r="AG46" s="169"/>
-      <c r="AH46" s="169" t="s">
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="140"/>
+      <c r="AF46" s="140"/>
+      <c r="AG46" s="140"/>
+      <c r="AH46" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="AI46" s="169"/>
-      <c r="AJ46" s="169"/>
-      <c r="AK46" s="169"/>
-      <c r="AL46" s="169"/>
-      <c r="AM46" s="169" t="s">
+      <c r="AI46" s="140"/>
+      <c r="AJ46" s="140"/>
+      <c r="AK46" s="140"/>
+      <c r="AL46" s="140"/>
+      <c r="AM46" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="AN46" s="169"/>
-      <c r="AO46" s="169"/>
-      <c r="AP46" s="169"/>
-      <c r="AQ46" s="169"/>
-      <c r="AR46" s="170" t="s">
+      <c r="AN46" s="140"/>
+      <c r="AO46" s="140"/>
+      <c r="AP46" s="140"/>
+      <c r="AQ46" s="140"/>
+      <c r="AR46" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="AS46" s="171"/>
-      <c r="AT46" s="171"/>
-      <c r="AU46" s="171"/>
-      <c r="AV46" s="172"/>
+      <c r="AS46" s="156"/>
+      <c r="AT46" s="156"/>
+      <c r="AU46" s="156"/>
+      <c r="AV46" s="157"/>
       <c r="AW46" s="90"/>
       <c r="AX46" s="91"/>
       <c r="AY46" s="33"/>
@@ -7605,59 +7605,59 @@
       <c r="R54" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="S54" s="162">
+      <c r="S54" s="150">
         <f>SUM(S48:W53)</f>
         <v>27</v>
       </c>
-      <c r="T54" s="162"/>
-      <c r="U54" s="162"/>
-      <c r="V54" s="162"/>
-      <c r="W54" s="163"/>
-      <c r="X54" s="158">
+      <c r="T54" s="150"/>
+      <c r="U54" s="150"/>
+      <c r="V54" s="150"/>
+      <c r="W54" s="151"/>
+      <c r="X54" s="142">
         <f>SUM(BB34:BF39)</f>
         <v>24</v>
       </c>
-      <c r="Y54" s="159"/>
-      <c r="Z54" s="159"/>
-      <c r="AA54" s="159"/>
-      <c r="AB54" s="164"/>
-      <c r="AC54" s="158">
+      <c r="Y54" s="152"/>
+      <c r="Z54" s="152"/>
+      <c r="AA54" s="152"/>
+      <c r="AB54" s="153"/>
+      <c r="AC54" s="142">
         <f t="shared" ref="AC54" si="36">SUM(AC48:AG53)</f>
         <v>30</v>
       </c>
-      <c r="AD54" s="159"/>
-      <c r="AE54" s="159"/>
-      <c r="AF54" s="159"/>
-      <c r="AG54" s="164"/>
-      <c r="AH54" s="158">
+      <c r="AD54" s="152"/>
+      <c r="AE54" s="152"/>
+      <c r="AF54" s="152"/>
+      <c r="AG54" s="153"/>
+      <c r="AH54" s="142">
         <f t="shared" ref="AH54" si="37">SUM(AH48:AL53)</f>
         <v>26</v>
       </c>
-      <c r="AI54" s="159"/>
-      <c r="AJ54" s="159"/>
-      <c r="AK54" s="159"/>
-      <c r="AL54" s="164"/>
-      <c r="AM54" s="158">
+      <c r="AI54" s="152"/>
+      <c r="AJ54" s="152"/>
+      <c r="AK54" s="152"/>
+      <c r="AL54" s="153"/>
+      <c r="AM54" s="142">
         <f t="shared" ref="AM54" si="38">SUM(AM48:AQ53)</f>
         <v>37</v>
       </c>
-      <c r="AN54" s="159"/>
-      <c r="AO54" s="159"/>
-      <c r="AP54" s="159"/>
-      <c r="AQ54" s="159"/>
-      <c r="AR54" s="158">
+      <c r="AN54" s="152"/>
+      <c r="AO54" s="152"/>
+      <c r="AP54" s="152"/>
+      <c r="AQ54" s="152"/>
+      <c r="AR54" s="142">
         <f t="shared" ref="AR54" si="39">SUM(AR48:AV53)</f>
         <v>24</v>
       </c>
-      <c r="AS54" s="159"/>
-      <c r="AT54" s="159"/>
-      <c r="AU54" s="159"/>
-      <c r="AV54" s="159"/>
-      <c r="AW54" s="154">
+      <c r="AS54" s="152"/>
+      <c r="AT54" s="152"/>
+      <c r="AU54" s="152"/>
+      <c r="AV54" s="152"/>
+      <c r="AW54" s="166">
         <f>SUM(S26:BF26,S40:BF40,S54:AV54)+48+80</f>
         <v>997</v>
       </c>
-      <c r="AX54" s="155"/>
+      <c r="AX54" s="167"/>
       <c r="AZ54" s="33"/>
       <c r="BA54" s="33"/>
       <c r="BB54" s="33"/>
@@ -7670,59 +7670,59 @@
       <c r="R55" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="S55" s="162">
+      <c r="S55" s="150">
         <f>22*S54</f>
         <v>594</v>
       </c>
-      <c r="T55" s="162"/>
-      <c r="U55" s="162"/>
-      <c r="V55" s="162"/>
-      <c r="W55" s="163"/>
-      <c r="X55" s="158">
+      <c r="T55" s="150"/>
+      <c r="U55" s="150"/>
+      <c r="V55" s="150"/>
+      <c r="W55" s="151"/>
+      <c r="X55" s="142">
         <f t="shared" ref="X55" si="40">22*X54</f>
         <v>528</v>
       </c>
-      <c r="Y55" s="159"/>
-      <c r="Z55" s="159"/>
-      <c r="AA55" s="159"/>
-      <c r="AB55" s="164"/>
-      <c r="AC55" s="158">
+      <c r="Y55" s="152"/>
+      <c r="Z55" s="152"/>
+      <c r="AA55" s="152"/>
+      <c r="AB55" s="153"/>
+      <c r="AC55" s="142">
         <f t="shared" ref="AC55" si="41">22*AC54</f>
         <v>660</v>
       </c>
-      <c r="AD55" s="159"/>
-      <c r="AE55" s="159"/>
-      <c r="AF55" s="159"/>
-      <c r="AG55" s="164"/>
-      <c r="AH55" s="158">
+      <c r="AD55" s="152"/>
+      <c r="AE55" s="152"/>
+      <c r="AF55" s="152"/>
+      <c r="AG55" s="153"/>
+      <c r="AH55" s="142">
         <f t="shared" ref="AH55" si="42">22*AH54</f>
         <v>572</v>
       </c>
-      <c r="AI55" s="159"/>
-      <c r="AJ55" s="159"/>
-      <c r="AK55" s="159"/>
-      <c r="AL55" s="164"/>
-      <c r="AM55" s="158">
+      <c r="AI55" s="152"/>
+      <c r="AJ55" s="152"/>
+      <c r="AK55" s="152"/>
+      <c r="AL55" s="153"/>
+      <c r="AM55" s="142">
         <f t="shared" ref="AM55" si="43">22*AM54</f>
         <v>814</v>
       </c>
-      <c r="AN55" s="159"/>
-      <c r="AO55" s="159"/>
-      <c r="AP55" s="159"/>
-      <c r="AQ55" s="159"/>
-      <c r="AR55" s="158">
+      <c r="AN55" s="152"/>
+      <c r="AO55" s="152"/>
+      <c r="AP55" s="152"/>
+      <c r="AQ55" s="152"/>
+      <c r="AR55" s="142">
         <f t="shared" ref="AR55" si="44">22*AR54</f>
         <v>528</v>
       </c>
-      <c r="AS55" s="159"/>
-      <c r="AT55" s="159"/>
-      <c r="AU55" s="159"/>
-      <c r="AV55" s="159"/>
-      <c r="AW55" s="154">
+      <c r="AS55" s="152"/>
+      <c r="AT55" s="152"/>
+      <c r="AU55" s="152"/>
+      <c r="AV55" s="152"/>
+      <c r="AW55" s="166">
         <f>SUM(S27:BF27,S41:BF41,S55:AV55)+1000+2000</f>
         <v>22118</v>
       </c>
-      <c r="AX55" s="155"/>
+      <c r="AX55" s="167"/>
       <c r="AZ55" s="33"/>
       <c r="BA55" s="33"/>
       <c r="BB55" s="33"/>
@@ -7735,59 +7735,59 @@
       <c r="R56" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="S56" s="165">
+      <c r="S56" s="144">
         <f>ROUNDUP(S54/8,0)</f>
         <v>4</v>
       </c>
-      <c r="T56" s="166"/>
-      <c r="U56" s="166"/>
-      <c r="V56" s="166"/>
-      <c r="W56" s="167"/>
-      <c r="X56" s="160">
+      <c r="T56" s="158"/>
+      <c r="U56" s="158"/>
+      <c r="V56" s="158"/>
+      <c r="W56" s="159"/>
+      <c r="X56" s="147">
         <f t="shared" ref="X56" si="45">ROUNDUP(X54/8,0)</f>
         <v>3</v>
       </c>
-      <c r="Y56" s="161"/>
-      <c r="Z56" s="161"/>
-      <c r="AA56" s="161"/>
-      <c r="AB56" s="168"/>
-      <c r="AC56" s="160">
+      <c r="Y56" s="160"/>
+      <c r="Z56" s="160"/>
+      <c r="AA56" s="160"/>
+      <c r="AB56" s="161"/>
+      <c r="AC56" s="147">
         <f t="shared" ref="AC56" si="46">ROUNDUP(AC54/8,0)</f>
         <v>4</v>
       </c>
-      <c r="AD56" s="161"/>
-      <c r="AE56" s="161"/>
-      <c r="AF56" s="161"/>
-      <c r="AG56" s="168"/>
-      <c r="AH56" s="160">
+      <c r="AD56" s="160"/>
+      <c r="AE56" s="160"/>
+      <c r="AF56" s="160"/>
+      <c r="AG56" s="161"/>
+      <c r="AH56" s="147">
         <f t="shared" ref="AH56" si="47">ROUNDUP(AH54/8,0)</f>
         <v>4</v>
       </c>
-      <c r="AI56" s="161"/>
-      <c r="AJ56" s="161"/>
-      <c r="AK56" s="161"/>
-      <c r="AL56" s="168"/>
-      <c r="AM56" s="160">
+      <c r="AI56" s="160"/>
+      <c r="AJ56" s="160"/>
+      <c r="AK56" s="160"/>
+      <c r="AL56" s="161"/>
+      <c r="AM56" s="147">
         <f t="shared" ref="AM56" si="48">ROUNDUP(AM54/8,0)</f>
         <v>5</v>
       </c>
-      <c r="AN56" s="161"/>
-      <c r="AO56" s="161"/>
-      <c r="AP56" s="161"/>
-      <c r="AQ56" s="161"/>
-      <c r="AR56" s="160">
+      <c r="AN56" s="160"/>
+      <c r="AO56" s="160"/>
+      <c r="AP56" s="160"/>
+      <c r="AQ56" s="160"/>
+      <c r="AR56" s="147">
         <f t="shared" ref="AR56" si="49">ROUNDUP(AR54/8,0)</f>
         <v>3</v>
       </c>
-      <c r="AS56" s="161"/>
-      <c r="AT56" s="161"/>
-      <c r="AU56" s="161"/>
-      <c r="AV56" s="161"/>
-      <c r="AW56" s="156">
+      <c r="AS56" s="160"/>
+      <c r="AT56" s="160"/>
+      <c r="AU56" s="160"/>
+      <c r="AV56" s="160"/>
+      <c r="AW56" s="168">
         <f>SUM(S28:BF28,S42:BF42,S56:AV56)+10+6</f>
         <v>134</v>
       </c>
-      <c r="AX56" s="157"/>
+      <c r="AX56" s="169"/>
       <c r="AZ56" s="33"/>
       <c r="BA56" s="33"/>
       <c r="BB56" s="33"/>
@@ -7798,51 +7798,43 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="AH18:AL18"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AH26:AL26"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="S42:W42"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S40:W40"/>
-    <mergeCell ref="BB18:BF18"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="AR26:AV26"/>
-    <mergeCell ref="AW26:BA26"/>
-    <mergeCell ref="BB26:BF26"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="BB28:BF28"/>
-    <mergeCell ref="X32:AB32"/>
-    <mergeCell ref="AR27:AV27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="BB27:BF27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="X27:AB27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="AH27:AL27"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="AR28:AV28"/>
-    <mergeCell ref="BB32:BF32"/>
-    <mergeCell ref="AR32:AV32"/>
-    <mergeCell ref="AW32:BA32"/>
-    <mergeCell ref="AC40:AG40"/>
-    <mergeCell ref="AH40:AL40"/>
-    <mergeCell ref="AM40:AQ40"/>
-    <mergeCell ref="AR40:AV40"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="X28:AB28"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="AH28:AL28"/>
-    <mergeCell ref="AC32:AG32"/>
-    <mergeCell ref="AH32:AL32"/>
-    <mergeCell ref="AM32:AQ32"/>
-    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="T4:AC4"/>
+    <mergeCell ref="AD4:AO4"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AW54:AX54"/>
+    <mergeCell ref="AW55:AX55"/>
+    <mergeCell ref="AW56:AX56"/>
+    <mergeCell ref="AM54:AQ54"/>
+    <mergeCell ref="AR56:AV56"/>
+    <mergeCell ref="AR55:AV55"/>
+    <mergeCell ref="AR54:AV54"/>
+    <mergeCell ref="AW41:BA41"/>
+    <mergeCell ref="AM41:AQ41"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="AR18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="X55:AB55"/>
+    <mergeCell ref="AC55:AG55"/>
+    <mergeCell ref="AH55:AL55"/>
+    <mergeCell ref="AM55:AQ55"/>
+    <mergeCell ref="S56:W56"/>
+    <mergeCell ref="X56:AB56"/>
+    <mergeCell ref="AC56:AG56"/>
+    <mergeCell ref="AH56:AL56"/>
+    <mergeCell ref="AM56:AQ56"/>
+    <mergeCell ref="AH46:AL46"/>
+    <mergeCell ref="AM46:AQ46"/>
+    <mergeCell ref="AR46:AV46"/>
+    <mergeCell ref="X42:AB42"/>
+    <mergeCell ref="AC42:AG42"/>
+    <mergeCell ref="AH42:AL42"/>
+    <mergeCell ref="AM42:AQ42"/>
+    <mergeCell ref="AR42:AV42"/>
     <mergeCell ref="BB41:BF41"/>
     <mergeCell ref="AW40:BA40"/>
     <mergeCell ref="BB40:BF40"/>
@@ -7859,43 +7851,51 @@
     <mergeCell ref="X46:AB46"/>
     <mergeCell ref="AC46:AG46"/>
     <mergeCell ref="AR41:AV41"/>
-    <mergeCell ref="AH46:AL46"/>
-    <mergeCell ref="AM46:AQ46"/>
-    <mergeCell ref="AR46:AV46"/>
-    <mergeCell ref="X42:AB42"/>
-    <mergeCell ref="AC42:AG42"/>
-    <mergeCell ref="AH42:AL42"/>
-    <mergeCell ref="AM42:AQ42"/>
-    <mergeCell ref="AR42:AV42"/>
-    <mergeCell ref="S56:W56"/>
-    <mergeCell ref="X56:AB56"/>
-    <mergeCell ref="AC56:AG56"/>
-    <mergeCell ref="AH56:AL56"/>
-    <mergeCell ref="AM56:AQ56"/>
-    <mergeCell ref="S55:W55"/>
-    <mergeCell ref="X55:AB55"/>
-    <mergeCell ref="AC55:AG55"/>
-    <mergeCell ref="AH55:AL55"/>
-    <mergeCell ref="AM55:AQ55"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AW54:AX54"/>
-    <mergeCell ref="AW55:AX55"/>
-    <mergeCell ref="AW56:AX56"/>
-    <mergeCell ref="AM54:AQ54"/>
-    <mergeCell ref="AR56:AV56"/>
-    <mergeCell ref="AR55:AV55"/>
-    <mergeCell ref="AR54:AV54"/>
-    <mergeCell ref="AW41:BA41"/>
-    <mergeCell ref="AM41:AQ41"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="AR18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="T4:AC4"/>
-    <mergeCell ref="AD4:AO4"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AC40:AG40"/>
+    <mergeCell ref="AH40:AL40"/>
+    <mergeCell ref="AM40:AQ40"/>
+    <mergeCell ref="AR40:AV40"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="X28:AB28"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="AH28:AL28"/>
+    <mergeCell ref="AC32:AG32"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="BB28:BF28"/>
+    <mergeCell ref="X32:AB32"/>
+    <mergeCell ref="AR27:AV27"/>
+    <mergeCell ref="AW27:BA27"/>
+    <mergeCell ref="BB27:BF27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="AH27:AL27"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="AR28:AV28"/>
+    <mergeCell ref="BB32:BF32"/>
+    <mergeCell ref="AR32:AV32"/>
+    <mergeCell ref="AW32:BA32"/>
+    <mergeCell ref="BB18:BF18"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="AR26:AV26"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="BB26:BF26"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="S46:W46"/>
+    <mergeCell ref="S42:W42"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S40:W40"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="AH18:AL18"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AH26:AL26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7915,15 +7915,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="181" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="92" t="s">
@@ -8065,15 +8065,15 @@
       <c r="G8" s="93"/>
     </row>
     <row r="11" spans="1:7" ht="18.75">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="181" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="92" t="s">
@@ -8213,15 +8213,15 @@
       <c r="G18" s="100"/>
     </row>
     <row r="21" spans="1:7" ht="18.75">
-      <c r="A21" s="182" t="s">
+      <c r="A21" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="92" t="s">
@@ -8363,15 +8363,15 @@
       <c r="G28" s="93"/>
     </row>
     <row r="31" spans="1:7" ht="18.75">
-      <c r="A31" s="182" t="s">
+      <c r="A31" s="181" t="s">
         <v>226</v>
       </c>
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="92" t="s">
@@ -8514,15 +8514,15 @@
     </row>
     <row r="39" spans="1:7" ht="14.45" customHeight="1"/>
     <row r="41" spans="1:7" ht="18.75">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="180" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="181"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="107" t="s">
@@ -8660,15 +8660,15 @@
       <c r="G48" s="112"/>
     </row>
     <row r="51" spans="1:7" ht="18.75">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="178" t="s">
         <v>274</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="179"/>
+      <c r="B51" s="178"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="107" t="s">
@@ -8819,15 +8819,15 @@
       <c r="G59" s="112"/>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
-      <c r="A62" s="179" t="s">
+      <c r="A62" s="178" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="180"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="179"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="92" t="s">
@@ -8984,113 +8984,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FE0CC-06BD-4B6B-AB3A-18DB40891309}">
   <dimension ref="A6:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:7">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="183" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="182" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="182" t="s">
         <v>314</v>
       </c>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="183" t="s">
         <v>317</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="182" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="76" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
+      <c r="A12" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
+      <c r="A13" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="182" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="76"/>
@@ -9141,7 +9164,10 @@
       <c r="D21" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
